--- a/data/sleeve/sleeve_unsh.xlsx
+++ b/data/sleeve/sleeve_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\sleeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\sleeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E5275-1171-4A69-806C-7DAAEDCFCF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D931996-8A1C-4299-A140-94369235C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -608,9 +608,8 @@
     <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/sleeve/sleeve_unsh.xlsx
+++ b/data/sleeve/sleeve_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\sleeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\sleeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D931996-8A1C-4299-A140-94369235C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EB56E1-60D9-457A-8F5D-CBC595F27A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -596,9 +596,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -608,8 +606,9 @@
     <col min="4" max="4" width="16.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/sleeve/sleeve_unsh.xlsx
+++ b/data/sleeve/sleeve_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\sleeve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\sleeve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EB56E1-60D9-457A-8F5D-CBC595F27A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CF1A0-ECBD-4FE2-9FFB-42331AAFA8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
